--- a/餐饮后台管理系统项目进度把控表.xlsx
+++ b/餐饮后台管理系统项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>项目名称</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>个人信息页面</t>
+  </si>
+  <si>
+    <t>库存编辑功能</t>
   </si>
   <si>
     <t>成本员工薪水修改、美化页面</t>
@@ -174,11 +177,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,28 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +234,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +266,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,17 +290,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,31 +313,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,21 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -391,61 +387,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,11 +605,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,17 +659,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,32 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -712,10 +708,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +720,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,13 +855,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,14 +888,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1776,7 +1772,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>35</v>
@@ -1792,7 +1788,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>37</v>
